--- a/数据结构（王晓东版本）/一天三题/算法心得.xlsx
+++ b/数据结构（王晓东版本）/一天三题/算法心得.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog\DS.github.io\数据结构（王晓东版本）\一天三题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF837C-AEC9-4F30-8469-A2D66888C519}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D534F-CCFA-4544-9195-6987CEB7924F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18744" windowHeight="11268" xr2:uid="{A09724D5-0128-4C77-A0A2-246AA920FA25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A09724D5-0128-4C77-A0A2-246AA920FA25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>求素数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>队列的一般操作，考试是不会考这么简单的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组队列（一个队列里面分成几个小的队列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双端栈模拟队列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C854C90-E4D5-4A78-8672-A214CB719764}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -494,6 +502,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据结构（王晓东版本）/一天三题/算法心得.xlsx
+++ b/数据结构（王晓东版本）/一天三题/算法心得.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog\DS.github.io\数据结构（王晓东版本）\一天三题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D534F-CCFA-4544-9195-6987CEB7924F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C24D8D-4A3D-44AC-86C6-03989BA4F1AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A09724D5-0128-4C77-A0A2-246AA920FA25}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>求素数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>双端栈模拟队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆序数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C854C90-E4D5-4A78-8672-A214CB719764}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,6 +524,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据结构（王晓东版本）/一天三题/算法心得.xlsx
+++ b/数据结构（王晓东版本）/一天三题/算法心得.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog\DS.github.io\数据结构（王晓东版本）\一天三题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C24D8D-4A3D-44AC-86C6-03989BA4F1AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50114AD-25C5-4E54-BB85-502562DB5926}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A09724D5-0128-4C77-A0A2-246AA920FA25}"/>
+    <workbookView xWindow="-3828" yWindow="6588" windowWidth="18744" windowHeight="11268" xr2:uid="{A09724D5-0128-4C77-A0A2-246AA920FA25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>求素数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,22 @@
   </si>
   <si>
     <t>逆序数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进版快排（通过插入排序改进）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个宏定义很不错可以借鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的ADT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C854C90-E4D5-4A78-8672-A214CB719764}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,6 +555,24 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
